--- a/data/trans_dic/P22$mutaSS-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P22$mutaSS-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,96; 11,39</t>
+          <t>5,84; 10,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,68; 9,66</t>
+          <t>4,6; 9,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,09; 10,2</t>
+          <t>5,26; 10,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,19; 8,77</t>
+          <t>4,31; 8,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,36; 10,09</t>
+          <t>4,61; 10,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,95; 10,31</t>
+          <t>4,03; 10,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,04; 9,44</t>
+          <t>3,93; 9,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,58; 9,46</t>
+          <t>5,77; 9,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,0; 9,7</t>
+          <t>5,87; 9,52</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,85; 8,81</t>
+          <t>5,04; 8,74</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,18; 8,89</t>
+          <t>4,89; 8,74</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,46; 8,45</t>
+          <t>5,45; 8,38</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,17; 15,09</t>
+          <t>8,22; 15,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,94; 12,07</t>
+          <t>5,83; 12,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,76; 8,6</t>
+          <t>3,64; 8,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,1; 12,83</t>
+          <t>7,06; 12,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,99; 7,87</t>
+          <t>3,0; 7,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,91; 6,46</t>
+          <t>1,76; 6,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,55; 3,56</t>
+          <t>0,56; 3,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,44; 3,83</t>
+          <t>1,45; 3,79</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,4; 10,74</t>
+          <t>6,23; 10,38</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,62; 8,71</t>
+          <t>4,62; 8,69</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,45; 5,43</t>
+          <t>2,45; 5,37</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,75; 8,22</t>
+          <t>4,73; 8,05</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,69</t>
+          <t>0,69; 2,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,49</t>
+          <t>0,16; 1,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,8</t>
+          <t>0,19; 2,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,76</t>
+          <t>0,0; 0,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 6,98</t>
+          <t>1,22; 6,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,16; 5,14</t>
+          <t>1,13; 5,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,2</t>
+          <t>0,0; 3,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,78</t>
+          <t>0,27; 2,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 2,97</t>
+          <t>1,06; 3,04</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,11</t>
+          <t>0,65; 2,13</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,69</t>
+          <t>0,15; 1,67</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,92</t>
+          <t>0,05; 0,87</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,41; 1,43</t>
+          <t>0,37; 1,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,32</t>
+          <t>0,33; 1,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,19</t>
+          <t>0,7; 2,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,93</t>
+          <t>0,0; 0,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,52; 3,83</t>
+          <t>1,53; 3,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,7</t>
+          <t>0,27; 1,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,41; 1,73</t>
+          <t>0,38; 1,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,67</t>
+          <t>0,07; 0,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,98; 2,06</t>
+          <t>0,93; 2,04</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,45; 1,2</t>
+          <t>0,42; 1,18</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,72; 1,74</t>
+          <t>0,73; 1,76</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,61</t>
+          <t>0,09; 0,56</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,04; 3,91</t>
+          <t>1,05; 4,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,04</t>
+          <t>0,0; 1,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,29</t>
+          <t>0,0; 1,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,83</t>
+          <t>0,0; 1,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,8; 5,02</t>
+          <t>1,6; 4,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,61</t>
+          <t>0,29; 1,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,07</t>
+          <t>0,0; 0,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,44</t>
+          <t>0,0; 0,46</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,75; 4,14</t>
+          <t>1,71; 3,98</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,11</t>
+          <t>0,19; 1,13</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,81</t>
+          <t>0,07; 0,8</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,86</t>
+          <t>0,08; 0,79</t>
         </is>
       </c>
     </row>
@@ -1424,32 +1425,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,77; 6,19</t>
+          <t>1,84; 6,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,75; 6,84</t>
+          <t>1,78; 6,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,34</t>
+          <t>0,36; 3,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,14; 9,72</t>
+          <t>1,05; 10,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,84; 3,58</t>
+          <t>1,97; 3,87</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,33; 3,1</t>
+          <t>1,32; 3,09</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1459,27 +1460,27 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,13; 3,13</t>
+          <t>1,14; 3,07</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,07; 3,82</t>
+          <t>2,1; 3,77</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,6; 3,4</t>
+          <t>1,6; 3,28</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,44; 1,56</t>
+          <t>0,5; 1,49</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,47; 4,09</t>
+          <t>1,37; 3,93</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,93; 4,27</t>
+          <t>2,98; 4,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,08; 3,28</t>
+          <t>2,08; 3,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,78; 2,87</t>
+          <t>1,78; 2,84</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,96; 3,4</t>
+          <t>1,98; 3,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,75; 3,96</t>
+          <t>2,75; 4,01</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,62; 2,66</t>
+          <t>1,63; 2,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,95; 1,76</t>
+          <t>0,95; 1,72</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,33; 2,17</t>
+          <t>1,3; 2,15</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,03; 3,95</t>
+          <t>3,02; 3,91</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,96; 2,75</t>
+          <t>2,01; 2,79</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1,47; 2,14</t>
+          <t>1,48; 2,14</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,79; 2,61</t>
+          <t>1,83; 2,62</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menor, es beneficiaria de Mutualidad de Estado (Seguridad Social)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>37819</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>30218</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>31087</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>31143</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>21462</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>20635</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>21049</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>33060</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>59281</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>50853</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>52135</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>64203</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>27584; 51733</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>20112; 42270</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>22578; 45442</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>21795; 43570</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>14134; 31681</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>12676; 33540</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>13636; 32666</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>25816; 43035</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>45686; 74127</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>37872; 65679</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>37936; 67841</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>51905; 79824</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>41970</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>36777</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>21488</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>42946</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>18861</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>11881</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>5820</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>9288</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>60831</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>48658</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>27308</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>52233</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>30144; 56408</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>24419; 51949</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>13713; 33200</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>31912; 58689</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>11142; 29281</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>5934; 21850</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2091; 12451</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>5549; 14517</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>46031; 76724</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>34991; 65785</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>18351; 40190</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>39523; 67219</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>8144</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3937</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>3641</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>1045</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>5203</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>7097</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1018</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1617</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>13347</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>11034</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>4659</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>2663</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3717; 15660</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>981; 9843</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1012; 12069</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5261</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2040; 11650</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2936; 13093</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5040</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>456; 4669</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7538; 21595</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>5802; 18957</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1030; 11524</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>395; 7226</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>9604</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>8418</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>15065</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2782</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>17584</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>6094</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>7477</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2713</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>27188</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>14512</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>22542</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>5495</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>4566; 17386</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3848; 15146</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>8029; 24295</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 9687</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>10938; 27786</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2043; 12505</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>3140; 15524</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>644; 6154</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>18190; 39679</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>8036; 22718</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>14484; 34771</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1834; 11196</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>7655</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1051</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2130</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2492</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>17331</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>5601</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2199</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1098</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>24987</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>6652</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>4329</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>3590</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3674; 14561</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6324</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 7520</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 9065</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>9098; 27039</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2179; 12701</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 7283</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0; 3837</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>15740; 36551</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>2370; 14349</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1016; 10840</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1005; 10434</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>10442</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>9524</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3832</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>10050</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>33030</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>22869</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>8381</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>13949</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>43472</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>32394</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>12213</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>24000</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>5475; 18135</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>4747; 17410</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1046; 8900</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2514; 25170</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>24575; 48269</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>14669; 34230</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>4020; 15751</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>8652; 23397</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>32442; 58247</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>22037; 45132</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>6817; 20388</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>13751; 39410</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>115634</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>89925</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>77242</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>90459</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>113471</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>74178</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>45944</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>61725</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>229106</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>164103</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>123186</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>152184</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>97276; 138712</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>71166; 111608</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>60264; 96076</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>66788; 114636</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>92702; 135363</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>57818; 94649</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>33417; 60694</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>46487; 76842</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>200416; 259536</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>139991; 194149</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>102501; 147543</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>127054; 182406</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P22$mutaSS-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P22$mutaSS-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
